--- a/data/__final_data_errors.xlsx
+++ b/data/__final_data_errors.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -432,276 +432,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>1232</v>
-      </c>
-      <c r="B2">
-        <v>6771</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>26345</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>0.4869</v>
-      </c>
-      <c r="I2">
-        <v>0.4988</v>
-      </c>
-      <c r="J2">
-        <v>1388</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>1269</v>
-      </c>
-      <c r="B3">
-        <v>6808</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>26345</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>0.4869</v>
-      </c>
-      <c r="I3">
-        <v>0.4988</v>
-      </c>
-      <c r="J3">
-        <v>1388</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1314</v>
-      </c>
-      <c r="B4">
-        <v>6853</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>26345</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>0.4869</v>
-      </c>
-      <c r="I4">
-        <v>0.4988</v>
-      </c>
-      <c r="J4">
-        <v>1388</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>316</v>
-      </c>
-      <c r="B5">
-        <v>18488</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15866</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ad</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>317</v>
-      </c>
-      <c r="B6">
-        <v>18489</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15866</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ad</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>673</v>
-      </c>
-      <c r="B7">
-        <v>18845</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15866</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ad</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
